--- a/ITI/mCSD/StructureDefinition-IHE.mCSD.OrganizationHierarchy.xlsx
+++ b/ITI/mCSD/StructureDefinition-IHE.mCSD.OrganizationHierarchy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-08T12:39:43-06:00</t>
+    <t>2022-01-10T13:59:33-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ITI/mCSD/StructureDefinition-IHE.mCSD.OrganizationHierarchy.xlsx
+++ b/ITI/mCSD/StructureDefinition-IHE.mCSD.OrganizationHierarchy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T13:59:33-06:00</t>
+    <t>2022-01-10T15:12:20-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ITI/mCSD/StructureDefinition-IHE.mCSD.OrganizationHierarchy.xlsx
+++ b/ITI/mCSD/StructureDefinition-IHE.mCSD.OrganizationHierarchy.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="122">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://profiles.ihe.net/ITI/mCSD/StructureDefinition/IHE.mCSD.OrganizationHierarchy</t>
+    <t>https://profiles.ihe.net/ITI/mCSD/StructureDefinition/IHE.mCSD.OrganizationHierarchy</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T15:12:20-06:00</t>
+    <t>2022-02-27T08:35:45-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>If there are additional hierarchies (such as funding source),then use this extension.</t>
+    <t>If there are additional hierarchies (such as funding source), then use this extension.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -369,10 +369,13 @@
     <t>valueCodeableConcept</t>
   </si>
   <si>
+    <t>A code for the type of the hierarchy.</t>
+  </si>
+  <si>
     <t>part-of</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://profiles.ihe.net/ITI/mCSD/StructureDefinition/IHE.mCSD.Organization)
+    <t xml:space="preserve">Reference(https://profiles.ihe.net/ITI/mCSD/StructureDefinition/IHE.mCSD.Organization)
 </t>
   </si>
   <si>
@@ -381,6 +384,9 @@
   <si>
     <t xml:space="preserve">Reference
 </t>
+  </si>
+  <si>
+    <t>The parent mCSD organization in this hierarchy.</t>
   </si>
   <si>
     <t>base64Binary
@@ -1704,10 +1710,10 @@
         <v>107</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1781,7 +1787,7 @@
         <v>88</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>76</v>
@@ -2120,7 +2126,7 @@
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R14" t="s" s="2">
         <v>76</v>
@@ -2205,7 +2211,7 @@
         <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>108</v>
@@ -2283,7 +2289,7 @@
         <v>106</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>76</v>
@@ -2305,13 +2311,13 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2507,7 +2513,7 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>108</v>

--- a/ITI/mCSD/StructureDefinition-IHE.mCSD.OrganizationHierarchy.xlsx
+++ b/ITI/mCSD/StructureDefinition-IHE.mCSD.OrganizationHierarchy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-27T08:35:45-06:00</t>
+    <t>2022-02-28T19:51:02-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
